--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Fgf7</t>
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>23.78806266666667</v>
+        <v>0.2479975</v>
       </c>
       <c r="H2">
-        <v>71.364188</v>
+        <v>0.495995</v>
       </c>
       <c r="I2">
-        <v>0.9523565551414847</v>
+        <v>0.009873286175486388</v>
       </c>
       <c r="J2">
-        <v>0.9638182834836496</v>
+        <v>0.006700450878695315</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N2">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O2">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P2">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q2">
-        <v>20.579183847278</v>
+        <v>0.0228348658075</v>
       </c>
       <c r="R2">
-        <v>123.475103083668</v>
+        <v>0.09133946323000001</v>
       </c>
       <c r="S2">
-        <v>0.3988113563039297</v>
+        <v>0.0007799498890951117</v>
       </c>
       <c r="T2">
-        <v>0.3186248755121843</v>
+        <v>0.0003715561179146546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>23.78806266666667</v>
+        <v>0.2479975</v>
       </c>
       <c r="H3">
-        <v>71.364188</v>
+        <v>0.495995</v>
       </c>
       <c r="I3">
-        <v>0.9523565551414847</v>
+        <v>0.009873286175486388</v>
       </c>
       <c r="J3">
-        <v>0.9638182834836496</v>
+        <v>0.006700450878695315</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +620,22 @@
         <v>2.969268</v>
       </c>
       <c r="O3">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P3">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q3">
-        <v>23.54437775270933</v>
+        <v>0.24545701361</v>
       </c>
       <c r="R3">
-        <v>211.899399774384</v>
+        <v>1.47274208166</v>
       </c>
       <c r="S3">
-        <v>0.4562749084012899</v>
+        <v>0.008383853540311056</v>
       </c>
       <c r="T3">
-        <v>0.5468018911348456</v>
+        <v>0.005990908104783011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>23.78806266666667</v>
+        <v>0.2479975</v>
       </c>
       <c r="H4">
-        <v>71.364188</v>
+        <v>0.495995</v>
       </c>
       <c r="I4">
-        <v>0.9523565551414847</v>
+        <v>0.009873286175486388</v>
       </c>
       <c r="J4">
-        <v>0.9638182834836496</v>
+        <v>0.006700450878695315</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N4">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O4">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P4">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q4">
-        <v>2.348095877764</v>
+        <v>0.020771774605</v>
       </c>
       <c r="R4">
-        <v>14.088575266584</v>
+        <v>0.08308709842000001</v>
       </c>
       <c r="S4">
-        <v>0.04550458894251</v>
+        <v>0.0007094827460802193</v>
       </c>
       <c r="T4">
-        <v>0.03635526861976048</v>
+        <v>0.0003379866559976503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,40 +726,40 @@
         <v>71.364188</v>
       </c>
       <c r="I5">
-        <v>0.9523565551414847</v>
+        <v>0.9470512818411631</v>
       </c>
       <c r="J5">
-        <v>0.9638182834836496</v>
+        <v>0.9640666462201789</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1122906666666667</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N5">
-        <v>0.336872</v>
+        <v>0.184154</v>
       </c>
       <c r="O5">
-        <v>0.0543553789957005</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P5">
-        <v>0.06436508756882468</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q5">
-        <v>2.671177415548444</v>
+        <v>2.190333446158667</v>
       </c>
       <c r="R5">
-        <v>24.040596739936</v>
+        <v>13.142000676952</v>
       </c>
       <c r="S5">
-        <v>0.05176570149375515</v>
+        <v>0.07481324141837813</v>
       </c>
       <c r="T5">
-        <v>0.0620362482168594</v>
+        <v>0.05345981441629771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.891119</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H6">
-        <v>1.782238</v>
+        <v>71.364188</v>
       </c>
       <c r="I6">
-        <v>0.03567600409302456</v>
+        <v>0.9470512818411631</v>
       </c>
       <c r="J6">
-        <v>0.024070246128483</v>
+        <v>0.9640666462201789</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8651055000000001</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N6">
-        <v>1.730211</v>
+        <v>2.969268</v>
       </c>
       <c r="O6">
-        <v>0.418762651604452</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P6">
-        <v>0.3305860461170526</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q6">
-        <v>0.7709119480545</v>
+        <v>23.54437775270933</v>
       </c>
       <c r="R6">
-        <v>3.083647792218</v>
+        <v>211.899399774384</v>
       </c>
       <c r="S6">
-        <v>0.01493977807264625</v>
+        <v>0.804184047843525</v>
       </c>
       <c r="T6">
-        <v>0.007957287496679486</v>
+        <v>0.8619770204950824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,75 +829,75 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>23.78806266666667</v>
+      </c>
+      <c r="H7">
+        <v>71.364188</v>
+      </c>
+      <c r="I7">
+        <v>0.9470512818411631</v>
+      </c>
+      <c r="J7">
+        <v>0.9640666462201789</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.891119</v>
-      </c>
-      <c r="H7">
-        <v>1.782238</v>
-      </c>
-      <c r="I7">
-        <v>0.03567600409302456</v>
-      </c>
-      <c r="J7">
-        <v>0.024070246128483</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9897559999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N7">
-        <v>2.969268</v>
+        <v>0.167516</v>
       </c>
       <c r="O7">
-        <v>0.4791009269984018</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P7">
-        <v>0.5673288217343945</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q7">
-        <v>0.8819903769639998</v>
+        <v>1.992440552834666</v>
       </c>
       <c r="R7">
-        <v>5.291942261784</v>
+        <v>11.954643317008</v>
       </c>
       <c r="S7">
-        <v>0.01709240663256684</v>
+        <v>0.06805399257925991</v>
       </c>
       <c r="T7">
-        <v>0.01365574437492913</v>
+        <v>0.04862981130879875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,60 +906,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.891119</v>
+        <v>1.08197</v>
       </c>
       <c r="H8">
-        <v>1.782238</v>
+        <v>2.16394</v>
       </c>
       <c r="I8">
-        <v>0.03567600409302456</v>
+        <v>0.04307543198335067</v>
       </c>
       <c r="J8">
-        <v>0.024070246128483</v>
+        <v>0.0292329029011259</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.09870899999999999</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N8">
-        <v>0.197418</v>
+        <v>0.184154</v>
       </c>
       <c r="O8">
-        <v>0.04778104240144566</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P8">
-        <v>0.0377200445797283</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q8">
-        <v>0.087961465371</v>
+        <v>0.09962455169000002</v>
       </c>
       <c r="R8">
-        <v>0.351845861484</v>
+        <v>0.3984982067600001</v>
       </c>
       <c r="S8">
-        <v>0.001704636664282955</v>
+        <v>0.00340278584060016</v>
       </c>
       <c r="T8">
-        <v>0.0009079307570114112</v>
+        <v>0.001621034780189796</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.891119</v>
+        <v>1.08197</v>
       </c>
       <c r="H9">
-        <v>1.782238</v>
+        <v>2.16394</v>
       </c>
       <c r="I9">
-        <v>0.03567600409302456</v>
+        <v>0.04307543198335067</v>
       </c>
       <c r="J9">
-        <v>0.024070246128483</v>
+        <v>0.0292329029011259</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1122906666666667</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N9">
-        <v>0.336872</v>
+        <v>2.969268</v>
       </c>
       <c r="O9">
-        <v>0.0543553789957005</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P9">
-        <v>0.06436508756882468</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q9">
-        <v>0.1000643465893333</v>
+        <v>1.07088629932</v>
       </c>
       <c r="R9">
-        <v>0.600386079536</v>
+        <v>6.42531779592</v>
       </c>
       <c r="S9">
-        <v>0.001939182723528512</v>
+        <v>0.03657729620262444</v>
       </c>
       <c r="T9">
-        <v>0.001549283499862971</v>
+        <v>0.02613729106999899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1015,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2197513333333333</v>
+        <v>1.08197</v>
       </c>
       <c r="H10">
-        <v>0.659254</v>
+        <v>2.16394</v>
       </c>
       <c r="I10">
-        <v>0.008797758175336408</v>
+        <v>0.04307543198335067</v>
       </c>
       <c r="J10">
-        <v>0.008903640277666018</v>
+        <v>0.0292329029011259</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,462 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8651055000000001</v>
+        <v>0.083758</v>
       </c>
       <c r="N10">
-        <v>1.730211</v>
+        <v>0.167516</v>
       </c>
       <c r="O10">
-        <v>0.418762651604452</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P10">
-        <v>0.3305860461170526</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q10">
-        <v>0.190108087099</v>
+        <v>0.09062364326000001</v>
       </c>
       <c r="R10">
-        <v>1.140648522594</v>
+        <v>0.36249457304</v>
       </c>
       <c r="S10">
-        <v>0.00368417254167862</v>
+        <v>0.00309534994012607</v>
       </c>
       <c r="T10">
-        <v>0.002943419235442145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.2197513333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.659254</v>
-      </c>
-      <c r="I11">
-        <v>0.008797758175336408</v>
-      </c>
-      <c r="J11">
-        <v>0.008903640277666018</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.9897559999999999</v>
-      </c>
-      <c r="N11">
-        <v>2.969268</v>
-      </c>
-      <c r="O11">
-        <v>0.4791009269984018</v>
-      </c>
-      <c r="P11">
-        <v>0.5673288217343945</v>
-      </c>
-      <c r="Q11">
-        <v>0.2175002006746666</v>
-      </c>
-      <c r="R11">
-        <v>1.957501806072</v>
-      </c>
-      <c r="S11">
-        <v>0.004215014097311441</v>
-      </c>
-      <c r="T11">
-        <v>0.005051291747875159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.2197513333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.659254</v>
-      </c>
-      <c r="I12">
-        <v>0.008797758175336408</v>
-      </c>
-      <c r="J12">
-        <v>0.008903640277666018</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.09870899999999999</v>
-      </c>
-      <c r="N12">
-        <v>0.197418</v>
-      </c>
-      <c r="O12">
-        <v>0.04778104240144566</v>
-      </c>
-      <c r="P12">
-        <v>0.0377200445797283</v>
-      </c>
-      <c r="Q12">
-        <v>0.021691434362</v>
-      </c>
-      <c r="R12">
-        <v>0.130148606172</v>
-      </c>
-      <c r="S12">
-        <v>0.0004203660564134141</v>
-      </c>
-      <c r="T12">
-        <v>0.0003358457081954267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.2197513333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.659254</v>
-      </c>
-      <c r="I13">
-        <v>0.008797758175336408</v>
-      </c>
-      <c r="J13">
-        <v>0.008903640277666018</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.336872</v>
-      </c>
-      <c r="O13">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P13">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q13">
-        <v>0.02467602372088889</v>
-      </c>
-      <c r="R13">
-        <v>0.222084213488</v>
-      </c>
-      <c r="S13">
-        <v>0.000478205479932933</v>
-      </c>
-      <c r="T13">
-        <v>0.0005730835861532877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.07917266666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.237518</v>
-      </c>
-      <c r="I14">
-        <v>0.003169682590154254</v>
-      </c>
-      <c r="J14">
-        <v>0.003207830110201345</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.8651055000000001</v>
-      </c>
-      <c r="N14">
-        <v>1.730211</v>
-      </c>
-      <c r="O14">
-        <v>0.418762651604452</v>
-      </c>
-      <c r="P14">
-        <v>0.3305860461170526</v>
-      </c>
-      <c r="Q14">
-        <v>0.06849270938299999</v>
-      </c>
-      <c r="R14">
-        <v>0.410956256298</v>
-      </c>
-      <c r="S14">
-        <v>0.001327344686197463</v>
-      </c>
-      <c r="T14">
-        <v>0.001060463872746692</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.07917266666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.237518</v>
-      </c>
-      <c r="I15">
-        <v>0.003169682590154254</v>
-      </c>
-      <c r="J15">
-        <v>0.003207830110201345</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.9897559999999999</v>
-      </c>
-      <c r="N15">
-        <v>2.969268</v>
-      </c>
-      <c r="O15">
-        <v>0.4791009269984018</v>
-      </c>
-      <c r="P15">
-        <v>0.5673288217343945</v>
-      </c>
-      <c r="Q15">
-        <v>0.07836162186933331</v>
-      </c>
-      <c r="R15">
-        <v>0.7052545968239998</v>
-      </c>
-      <c r="S15">
-        <v>0.001518597867233598</v>
-      </c>
-      <c r="T15">
-        <v>0.001819894476744642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.07917266666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.237518</v>
-      </c>
-      <c r="I16">
-        <v>0.003169682590154254</v>
-      </c>
-      <c r="J16">
-        <v>0.003207830110201345</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.09870899999999999</v>
-      </c>
-      <c r="N16">
-        <v>0.197418</v>
-      </c>
-      <c r="O16">
-        <v>0.04778104240144566</v>
-      </c>
-      <c r="P16">
-        <v>0.0377200445797283</v>
-      </c>
-      <c r="Q16">
-        <v>0.007815054753999998</v>
-      </c>
-      <c r="R16">
-        <v>0.04689032852399999</v>
-      </c>
-      <c r="S16">
-        <v>0.0001514507382392845</v>
-      </c>
-      <c r="T16">
-        <v>0.0001209994947609895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.07917266666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.237518</v>
-      </c>
-      <c r="I17">
-        <v>0.003169682590154254</v>
-      </c>
-      <c r="J17">
-        <v>0.003207830110201345</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.336872</v>
-      </c>
-      <c r="O17">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P17">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q17">
-        <v>0.008890351521777777</v>
-      </c>
-      <c r="R17">
-        <v>0.08001316369599999</v>
-      </c>
-      <c r="S17">
-        <v>0.0001722892984839081</v>
-      </c>
-      <c r="T17">
-        <v>0.0002064722659490221</v>
+        <v>0.001474577050937117</v>
       </c>
     </row>
   </sheetData>
